--- a/VMax-Php-Team.xlsx
+++ b/VMax-Php-Team.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>pagination in each section</t>
+  </si>
+  <si>
+    <t>Municipal Servies</t>
+  </si>
+  <si>
+    <t>Supporting</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>SUH</t>
+  </si>
+  <si>
+    <t>Sham[Testing]</t>
   </si>
 </sst>
 </file>
@@ -493,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,6 +699,26 @@
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
